--- a/Trabajo práctico 3/Bases limpias/Población tipo.xlsx
+++ b/Trabajo práctico 3/Bases limpias/Población tipo.xlsx
@@ -12,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">GRUPEDAD</t>
   </si>
   <si>
     <t xml:space="preserve">POBLACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASAS</t>
   </si>
   <si>
     <t xml:space="preserve">0-14</t>
@@ -374,53 +380,95 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>11012606</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>10579687</v>
       </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0945207547255415</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>9456758</v>
       </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.422977938105215</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>6906284</v>
       </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4479566725029</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>4822074</v>
       </c>
+      <c r="C6" t="n">
+        <v>175</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.62914380824517</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
         <v>2161303</v>
+      </c>
+      <c r="C7" t="n">
+        <v>155</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.17159972479564</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo práctico 3/Bases limpias/Población tipo.xlsx
+++ b/Trabajo práctico 3/Bases limpias/Población tipo.xlsx
@@ -412,7 +412,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0945207547255415</v>
+        <v>0.945207547255415</v>
       </c>
     </row>
     <row r="4">
@@ -426,7 +426,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>0.422977938105215</v>
+        <v>4.22977938105215</v>
       </c>
     </row>
     <row r="5">
@@ -440,7 +440,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4479566725029</v>
+        <v>14.479566725029</v>
       </c>
     </row>
     <row r="6">
@@ -454,7 +454,7 @@
         <v>175</v>
       </c>
       <c r="D6" t="n">
-        <v>3.62914380824517</v>
+        <v>36.2914380824517</v>
       </c>
     </row>
     <row r="7">
@@ -468,7 +468,7 @@
         <v>155</v>
       </c>
       <c r="D7" t="n">
-        <v>7.17159972479564</v>
+        <v>71.7159972479564</v>
       </c>
     </row>
   </sheetData>
